--- a/row_data/1.xlsx
+++ b/row_data/1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t xml:space="preserve">Qoil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data2</t>
   </si>
   <si>
     <t xml:space="preserve">company1</t>
@@ -140,7 +146,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -172,10 +178,10 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.54"/>
@@ -235,29 +241,29 @@
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="3" t="n">
-        <v>45121</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>45122</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>45121</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>45122</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>45121</v>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>45122</v>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>45121</v>
-      </c>
-      <c r="J3" s="3" t="n">
-        <v>45122</v>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -267,7 +273,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>10</v>
@@ -300,7 +306,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>11</v>
@@ -333,7 +339,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4" t="n">
         <v>12</v>
@@ -366,7 +372,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7" s="4" t="n">
         <v>13</v>
@@ -399,7 +405,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>14</v>
@@ -432,7 +438,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9" s="4" t="n">
         <v>15</v>
@@ -465,7 +471,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" s="4" t="n">
         <v>16</v>
@@ -498,7 +504,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11" s="4" t="n">
         <v>17</v>
@@ -531,7 +537,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12" s="4" t="n">
         <v>18</v>
@@ -564,7 +570,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C13" s="4" t="n">
         <v>19</v>
@@ -597,7 +603,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C14" s="4" t="n">
         <v>20</v>
@@ -630,7 +636,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C15" s="4" t="n">
         <v>21</v>
@@ -663,7 +669,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C16" s="4" t="n">
         <v>22</v>
@@ -696,7 +702,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C17" s="4" t="n">
         <v>23</v>
@@ -729,7 +735,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C18" s="4" t="n">
         <v>24</v>
@@ -762,7 +768,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C19" s="4" t="n">
         <v>25</v>
@@ -795,7 +801,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C20" s="4" t="n">
         <v>26</v>
@@ -828,7 +834,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C21" s="4" t="n">
         <v>27</v>
@@ -861,7 +867,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C22" s="4" t="n">
         <v>28</v>
@@ -894,7 +900,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C23" s="4" t="n">
         <v>29</v>
